--- a/classifier/doc/scores.xlsx
+++ b/classifier/doc/scores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allep\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allep\Desktop\studi\Università\esami\20222023\sessione_estiva_22_23\ML_fondamenti\esame\codice\classifier\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB0C619F-EB8A-46EA-8CD2-C1369E98AC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A3CA1-D6D5-4962-8A15-BE95F82A79E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4D299320-1EE6-486D-8323-9BD94456959B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D299320-1EE6-486D-8323-9BD94456959B}"/>
   </bookViews>
   <sheets>
     <sheet name="Logical" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
   <si>
     <t>Risultati</t>
   </si>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EC1B15-8539-4AE3-A1EF-1102DCB708F1}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,6 +582,267 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="H12" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>22</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="H20" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="H28" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>23</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -591,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D506DA9-BC9E-4F9E-AFBC-99D134DA01F9}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/classifier/doc/scores.xlsx
+++ b/classifier/doc/scores.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allep\Desktop\studi\Università\esami\20222023\sessione_estiva_22_23\ML_fondamenti\esame\codice\classifier\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A3CA1-D6D5-4962-8A15-BE95F82A79E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBACAD1-4E0C-4A96-9B6F-94851CCF6679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D299320-1EE6-486D-8323-9BD94456959B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4D299320-1EE6-486D-8323-9BD94456959B}"/>
   </bookViews>
   <sheets>
     <sheet name="Logical" sheetId="1" r:id="rId1"/>
     <sheet name="RandomForest" sheetId="2" r:id="rId2"/>
+    <sheet name="SVM_PERFORM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="20">
   <si>
     <t>Risultati</t>
   </si>
@@ -88,6 +89,15 @@
   </si>
   <si>
     <t>FDR</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
   </si>
 </sst>
 </file>
@@ -180,6 +190,1203 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Prestaz. temporali</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SVM_PERFORM!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM_PERFORM!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63D9-4AE0-8587-37B2DEC55EFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SVM_PERFORM!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM_PERFORM!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63D9-4AE0-8587-37B2DEC55EFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SVM_PERFORM!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FDR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM_PERFORM!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-63D9-4AE0-8587-37B2DEC55EFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SVM_PERFORM!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SVM_PERFORM!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-63D9-4AE0-8587-37B2DEC55EFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1750551040"/>
+        <c:axId val="1740101904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1750551040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1740101904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1740101904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750551040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A2FA8F-15BE-74A8-64E6-4D3BEBA979B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EC1B15-8539-4AE3-A1EF-1102DCB708F1}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -852,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D506DA9-BC9E-4F9E-AFBC-99D134DA01F9}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1216,4 +2423,204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A783B4-A50F-4A53-91D3-8885C3428B14}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>